--- a/Analysis/verification/consistency_test/throughput/bosses/throughput_mean_service_time_2-and-3.xlsx
+++ b/Analysis/verification/consistency_test/throughput/bosses/throughput_mean_service_time_2-and-3.xlsx
@@ -11,8 +11,8 @@
     <sheet name="2_mean_service_time" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">2_mean_service_time!$D$1:$I$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">2_mean_service_time!$B$1:$L$101</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">2_mean_service_time!$B$1:$L$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">2_mean_service_time!$D$1:$I$101</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -856,7 +856,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -876,7 +876,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Bosses Throughput</a:t>
+              <a:t>Consistency Test - Bosses Mean Throughput T</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -885,8 +885,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.396069423175089"/>
-          <c:y val="0.0302457466918715"/>
+          <c:x val="0.256124156818989"/>
+          <c:y val="0.027896512935883"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -904,10 +904,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.108504773086937"/>
-          <c:y val="0.124016938898972"/>
-          <c:w val="0.80029608453724"/>
-          <c:h val="0.663490623109498"/>
+          <c:x val="0.108485063650657"/>
+          <c:y val="0.124034495688039"/>
+          <c:w val="0.798650910381904"/>
+          <c:h val="0.666591676040495"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1020,6 +1020,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1057,11 +1058,11 @@
         </c:ser>
         <c:gapWidth val="400"/>
         <c:overlap val="-100"/>
-        <c:axId val="97464917"/>
-        <c:axId val="96830240"/>
+        <c:axId val="8941880"/>
+        <c:axId val="788565"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97464917"/>
+        <c:axId val="8941880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,8 +1092,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.484328739152629"/>
-              <c:y val="0.802495274102079"/>
+              <c:x val="0.484201450524928"/>
+              <c:y val="0.802099737532808"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1125,7 +1126,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96830240"/>
+        <c:crossAx val="788565"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1133,7 +1134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96830240"/>
+        <c:axId val="788565"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1164,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Throughput [ bosses defeated / seconds ]</a:t>
+                  <a:t>Throughput [s]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1198,7 +1199,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97464917"/>
+        <c:crossAx val="8941880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1217,10 +1218,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.410842819949972"/>
-          <c:y val="0.860783424077435"/>
-          <c:w val="0.199295522997601"/>
-          <c:h val="0.0828039927404719"/>
+          <c:x val="0.410820421640843"/>
+          <c:y val="0.860817397825272"/>
+          <c:w val="0.1999491998984"/>
+          <c:h val="0.085639295088114"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1261,15 +1262,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>348120</xdr:colOff>
+      <xdr:colOff>342000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>459720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>61920</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1277,8 +1278,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="38110680" y="459720"/>
-        <a:ext cx="7052040" cy="4760640"/>
+        <a:off x="39615840" y="459720"/>
+        <a:ext cx="7097760" cy="4800240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1298,26 +1299,27 @@
   </sheetPr>
   <dimension ref="B1:W101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC34" activeCellId="0" sqref="AC34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="59.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="56.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="60.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="20.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="20.18"/>
@@ -5219,7 +5221,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:I101"/>
+  <autoFilter ref="B1:L101"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Analysis/verification/consistency_test/throughput/bosses/throughput_mean_service_time_2-and-3.xlsx
+++ b/Analysis/verification/consistency_test/throughput/bosses/throughput_mean_service_time_2-and-3.xlsx
@@ -856,7 +856,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -885,8 +885,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.256124156818989"/>
-          <c:y val="0.027896512935883"/>
+          <c:x val="0.256193750632015"/>
+          <c:y val="0.0280507012675317"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -904,10 +904,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.108485063650657"/>
-          <c:y val="0.124034495688039"/>
-          <c:w val="0.798650910381904"/>
-          <c:h val="0.666591676040495"/>
+          <c:x val="0.114299438741973"/>
+          <c:y val="0.106585658565857"/>
+          <c:w val="0.81422864944127"/>
+          <c:h val="0.702970297029703"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1058,11 +1058,11 @@
         </c:ser>
         <c:gapWidth val="400"/>
         <c:overlap val="-100"/>
-        <c:axId val="8941880"/>
-        <c:axId val="788565"/>
+        <c:axId val="88967495"/>
+        <c:axId val="15585652"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8941880"/>
+        <c:axId val="88967495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,8 +1092,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.484201450524928"/>
-              <c:y val="0.802099737532808"/>
+              <c:x val="0.500859540904035"/>
+              <c:y val="0.824870621765544"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1126,7 +1126,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="788565"/>
+        <c:crossAx val="15585652"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1134,7 +1134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="788565"/>
+        <c:axId val="15585652"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1199,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8941880"/>
+        <c:crossAx val="88967495"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1218,10 +1218,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.410820421640843"/>
-          <c:y val="0.860817397825272"/>
-          <c:w val="0.1999491998984"/>
-          <c:h val="0.085639295088114"/>
+          <c:x val="0.252161601860747"/>
+          <c:y val="0.860861086108611"/>
+          <c:w val="0.472973656267381"/>
+          <c:h val="0.0855835583558356"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1268,9 +1268,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1278,8 +1278,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="39615840" y="459720"/>
-        <a:ext cx="7097760" cy="4800240"/>
+        <a:off x="39628800" y="459720"/>
+        <a:ext cx="7119720" cy="4799520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1300,10 +1300,10 @@
   <dimension ref="B1:W101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC34" activeCellId="0" sqref="AC34"/>
+      <selection pane="topLeft" activeCell="V17" activeCellId="0" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.59"/>
